--- a/data.xlsx
+++ b/data.xlsx
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
   <si>
     <t>Сервер</t>
   </si>
@@ -1471,6 +1471,15 @@
   </si>
   <si>
     <t>10.72.1.6</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>172.14.13.254</t>
+  </si>
+  <si>
+    <t>172.14.77.254</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1908,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2105,37 +2114,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2601,1584 +2613,1584 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="4" spans="2:17" ht="12.45" customHeight="1">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="85"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="85"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="85"/>
+      <c r="Q62" s="85"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="85"/>
+      <c r="O63" s="85"/>
+      <c r="P63" s="85"/>
+      <c r="Q63" s="85"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="85"/>
+      <c r="Q64" s="85"/>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="N65" s="85"/>
+      <c r="O65" s="85"/>
+      <c r="P65" s="85"/>
+      <c r="Q65" s="85"/>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="85"/>
+      <c r="P66" s="85"/>
+      <c r="Q66" s="85"/>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
+      <c r="N67" s="85"/>
+      <c r="O67" s="85"/>
+      <c r="P67" s="85"/>
+      <c r="Q67" s="85"/>
     </row>
     <row r="68" spans="2:17">
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="85"/>
+      <c r="N68" s="85"/>
+      <c r="O68" s="85"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="85"/>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+      <c r="Q69" s="85"/>
     </row>
     <row r="70" spans="2:17">
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
+      <c r="N71" s="85"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="85"/>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
+      <c r="N72" s="85"/>
+      <c r="O72" s="85"/>
+      <c r="P72" s="85"/>
+      <c r="Q72" s="85"/>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="85"/>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
     </row>
     <row r="75" spans="2:17">
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
     </row>
     <row r="76" spans="2:17">
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
     </row>
     <row r="77" spans="2:17">
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="85"/>
+      <c r="P77" s="85"/>
+      <c r="Q77" s="85"/>
     </row>
     <row r="78" spans="2:17">
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="85"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="85"/>
     </row>
     <row r="79" spans="2:17">
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="85"/>
+      <c r="O79" s="85"/>
+      <c r="P79" s="85"/>
+      <c r="Q79" s="85"/>
     </row>
     <row r="80" spans="2:17">
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="85"/>
+      <c r="O80" s="85"/>
+      <c r="P80" s="85"/>
+      <c r="Q80" s="85"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84"/>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="85"/>
+      <c r="Q81" s="85"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
     </row>
     <row r="83" spans="2:17">
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
+      <c r="M83" s="85"/>
+      <c r="N83" s="85"/>
+      <c r="O83" s="85"/>
+      <c r="P83" s="85"/>
+      <c r="Q83" s="85"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="85"/>
     </row>
     <row r="85" spans="2:17">
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="85"/>
+      <c r="N85" s="85"/>
+      <c r="O85" s="85"/>
+      <c r="P85" s="85"/>
+      <c r="Q85" s="85"/>
     </row>
     <row r="86" spans="2:17">
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
     </row>
     <row r="87" spans="2:17">
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
-      <c r="K87" s="84"/>
-      <c r="L87" s="84"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="84"/>
-      <c r="O87" s="84"/>
-      <c r="P87" s="84"/>
-      <c r="Q87" s="84"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
     </row>
     <row r="88" spans="2:17">
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="K88" s="84"/>
-      <c r="L88" s="84"/>
-      <c r="M88" s="84"/>
-      <c r="N88" s="84"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="85"/>
+      <c r="O88" s="85"/>
+      <c r="P88" s="85"/>
+      <c r="Q88" s="85"/>
     </row>
     <row r="89" spans="2:17">
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="84"/>
-      <c r="O89" s="84"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85"/>
+      <c r="Q89" s="85"/>
     </row>
     <row r="90" spans="2:17">
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="84"/>
-      <c r="J90" s="84"/>
-      <c r="K90" s="84"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="84"/>
-      <c r="N90" s="84"/>
-      <c r="O90" s="84"/>
-      <c r="P90" s="84"/>
-      <c r="Q90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4235,11 +4247,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:44" ht="12.45" customHeight="1">
-      <c r="E4" s="89" t="str">
+      <c r="E4" s="88" t="str">
         <f>Сущности!D3&amp;" УУ1"</f>
         <v>SRV-001 УУ1</v>
       </c>
-      <c r="F4" s="89"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -4249,11 +4261,11 @@
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
-      <c r="P4" s="89" t="str">
+      <c r="P4" s="88" t="str">
         <f>Сущности!D4&amp;" УУ2"</f>
         <v>SRV-002 УУ2</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="88"/>
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="51"/>
@@ -4262,11 +4274,11 @@
       <c r="W4" s="51"/>
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
-      <c r="Z4" s="89" t="str">
+      <c r="Z4" s="88" t="str">
         <f>Сущности!D5&amp;" УУ3"</f>
         <v>SRV-003 УУ3</v>
       </c>
-      <c r="AA4" s="89"/>
+      <c r="AA4" s="88"/>
       <c r="AB4" s="51"/>
       <c r="AC4" s="51"/>
       <c r="AD4" s="51"/>
@@ -4275,17 +4287,17 @@
       <c r="AG4" s="51"/>
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
-      <c r="AJ4" s="89" t="str">
+      <c r="AJ4" s="88" t="str">
         <f>Сущности!D6&amp;" ВУ1"</f>
         <v>SRV-004 ВУ1</v>
       </c>
-      <c r="AK4" s="89"/>
+      <c r="AK4" s="88"/>
       <c r="AL4" s="51"/>
       <c r="AM4" s="51"/>
     </row>
     <row r="5" spans="1:44">
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
@@ -4295,8 +4307,8 @@
       <c r="M5" s="51"/>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
       <c r="R5" s="51"/>
       <c r="S5" s="51"/>
       <c r="T5" s="51"/>
@@ -4305,8 +4317,8 @@
       <c r="W5" s="51"/>
       <c r="X5" s="51"/>
       <c r="Y5" s="51"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
       <c r="AB5" s="51"/>
       <c r="AC5" s="51"/>
       <c r="AD5" s="51"/>
@@ -4315,76 +4327,76 @@
       <c r="AG5" s="51"/>
       <c r="AH5" s="51"/>
       <c r="AI5" s="51"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
       <c r="AL5" s="51"/>
       <c r="AM5" s="51"/>
     </row>
     <row r="6" spans="1:44" ht="12.45" customHeight="1">
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="91" t="str">
+      <c r="F6" s="90"/>
+      <c r="G6" s="86" t="str">
         <f>Сущности!F3</f>
         <v>172.14.13.12</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="91" t="str">
+      <c r="Q6" s="88"/>
+      <c r="R6" s="86" t="str">
         <f>Сущности!F4</f>
         <v>172.14.13.13</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
-      <c r="Z6" s="89" t="s">
+      <c r="Z6" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="91" t="str">
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="86" t="str">
         <f>Сущности!F5</f>
         <v>172.14.13.14</v>
       </c>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="51"/>
       <c r="AI6" s="51"/>
-      <c r="AJ6" s="89" t="s">
+      <c r="AJ6" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="91" t="str">
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="86" t="str">
         <f>Сущности!F6</f>
         <v>172.14.13.15</v>
       </c>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
       <c r="AO6" s="51"/>
       <c r="AP6" s="51"/>
       <c r="AQ6" s="51"/>
       <c r="AR6" s="51"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="E7" s="91"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="52"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -4394,8 +4406,8 @@
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
       <c r="R7" s="52"/>
       <c r="S7" s="55"/>
       <c r="T7" s="53"/>
@@ -4404,8 +4416,8 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
       <c r="Y7" s="51"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="55"/>
       <c r="AD7" s="53"/>
@@ -4414,8 +4426,8 @@
       <c r="AG7" s="51"/>
       <c r="AH7" s="51"/>
       <c r="AI7" s="51"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
       <c r="AL7" s="52"/>
       <c r="AM7" s="55"/>
       <c r="AN7" s="53"/>
@@ -4425,10 +4437,10 @@
       <c r="AR7" s="51"/>
     </row>
     <row r="8" spans="1:44" ht="12.45" customHeight="1">
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
       <c r="I8" s="63"/>
@@ -4438,10 +4450,10 @@
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="Q8" s="89"/>
+      <c r="Q8" s="88"/>
       <c r="R8" s="51"/>
       <c r="S8" s="63"/>
       <c r="T8" s="58"/>
@@ -4450,10 +4462,10 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
       <c r="Y8" s="51"/>
-      <c r="Z8" s="89" t="s">
+      <c r="Z8" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="AA8" s="89"/>
+      <c r="AA8" s="88"/>
       <c r="AB8" s="51"/>
       <c r="AC8" s="63"/>
       <c r="AD8" s="58"/>
@@ -4462,10 +4474,10 @@
       <c r="AG8" s="51"/>
       <c r="AH8" s="51"/>
       <c r="AI8" s="51"/>
-      <c r="AJ8" s="89" t="s">
+      <c r="AJ8" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="AK8" s="89"/>
+      <c r="AK8" s="88"/>
       <c r="AL8" s="51"/>
       <c r="AM8" s="51"/>
       <c r="AN8" s="58"/>
@@ -4475,8 +4487,8 @@
       <c r="AR8" s="51"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="E9" s="91"/>
-      <c r="F9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="52"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
@@ -4486,8 +4498,8 @@
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
       <c r="R9" s="52"/>
       <c r="S9" s="55"/>
       <c r="T9" s="53"/>
@@ -4496,8 +4508,8 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
       <c r="AB9" s="52"/>
       <c r="AC9" s="55"/>
       <c r="AD9" s="53"/>
@@ -4506,8 +4518,8 @@
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
       <c r="AI9" s="51"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
       <c r="AL9" s="52"/>
       <c r="AM9" s="55"/>
       <c r="AN9" s="53"/>
@@ -4517,11 +4529,11 @@
       <c r="AR9" s="51"/>
     </row>
     <row r="10" spans="1:44" ht="12.45" customHeight="1">
-      <c r="E10" s="89" t="str">
+      <c r="E10" s="88" t="str">
         <f>Сущности!F13&amp;" Controller-1"</f>
         <v>172.14.77.12 Controller-1</v>
       </c>
-      <c r="F10" s="89" t="str">
+      <c r="F10" s="88" t="str">
         <f>Сущности!F16&amp;" dbmaster-1"</f>
         <v>172.14.77.15 dbmaster-1</v>
       </c>
@@ -4534,11 +4546,11 @@
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
       <c r="O10" s="51"/>
-      <c r="P10" s="89" t="str">
+      <c r="P10" s="88" t="str">
         <f>Сущности!F14&amp;" Controller-2"</f>
         <v>172.14.77.13 Controller-2</v>
       </c>
-      <c r="Q10" s="89" t="str">
+      <c r="Q10" s="88" t="str">
         <f>Сущности!F17&amp;" dbmaster-2"</f>
         <v>172.14.77.16 dbmaster-2</v>
       </c>
@@ -4550,11 +4562,11 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
-      <c r="Z10" s="89" t="str">
+      <c r="Z10" s="88" t="str">
         <f>Сущности!F15&amp;" Controller-3"</f>
         <v>172.14.77.14 Controller-3</v>
       </c>
-      <c r="AA10" s="89" t="str">
+      <c r="AA10" s="88" t="str">
         <f>Сущности!F18&amp;" dbmaster-3"</f>
         <v>172.14.77.17 dbmaster-3</v>
       </c>
@@ -4566,10 +4578,10 @@
       <c r="AG10" s="51"/>
       <c r="AH10" s="51"/>
       <c r="AI10" s="51"/>
-      <c r="AJ10" s="89" t="s">
+      <c r="AJ10" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="AK10" s="89"/>
+      <c r="AK10" s="88"/>
       <c r="AL10" s="51"/>
       <c r="AM10" s="51"/>
       <c r="AN10" s="56"/>
@@ -4579,8 +4591,8 @@
       <c r="AR10" s="51"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="52"/>
       <c r="H11" s="55"/>
       <c r="I11" s="57"/>
@@ -4589,8 +4601,8 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
       <c r="R11" s="52"/>
       <c r="S11" s="57"/>
       <c r="U11" s="57"/>
@@ -4598,8 +4610,8 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
       <c r="Y11" s="51"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
       <c r="AB11" s="52"/>
       <c r="AC11" s="57"/>
       <c r="AE11" s="57"/>
@@ -4607,8 +4619,8 @@
       <c r="AG11" s="51"/>
       <c r="AH11" s="51"/>
       <c r="AI11" s="51"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="90"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="94"/>
       <c r="AL11" s="57"/>
       <c r="AM11" s="51"/>
       <c r="AO11" s="57"/>
@@ -4618,57 +4630,57 @@
     </row>
     <row r="12" spans="1:44" ht="12.45" customHeight="1">
       <c r="A12" s="51"/>
-      <c r="B12" s="85" t="str">
-        <f>Сущности!H3</f>
+      <c r="B12" s="87" t="str">
+        <f>Сущности!I3</f>
         <v>172.18.254.30</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="89" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="51"/>
-      <c r="M12" s="85" t="str">
-        <f>Сущности!H4</f>
+      <c r="M12" s="87" t="str">
+        <f>Сущности!I4</f>
         <v>172.18.254.31</v>
       </c>
-      <c r="N12" s="85"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="89" t="s">
+      <c r="N12" s="87"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="Q12" s="89"/>
+      <c r="Q12" s="88"/>
       <c r="R12" s="51"/>
       <c r="S12" s="57"/>
       <c r="U12" s="57"/>
       <c r="V12" s="51"/>
-      <c r="W12" s="85" t="str">
-        <f>Сущности!H5</f>
+      <c r="W12" s="87" t="str">
+        <f>Сущности!I5</f>
         <v>172.18.254.32</v>
       </c>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="89" t="s">
+      <c r="X12" s="87"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="AA12" s="89"/>
+      <c r="AA12" s="88"/>
       <c r="AB12" s="51"/>
       <c r="AC12" s="57"/>
       <c r="AE12" s="57"/>
       <c r="AF12" s="51"/>
-      <c r="AG12" s="85" t="str">
-        <f>Сущности!H6</f>
+      <c r="AG12" s="87" t="str">
+        <f>Сущности!I6</f>
         <v>172.18.254.33</v>
       </c>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="88"/>
+      <c r="AK12" s="88"/>
       <c r="AL12" s="51"/>
       <c r="AM12" s="51"/>
       <c r="AO12" s="57"/>
@@ -4681,8 +4693,8 @@
       <c r="B13" s="52"/>
       <c r="C13" s="55"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="57"/>
@@ -4691,8 +4703,8 @@
       <c r="M13" s="52"/>
       <c r="N13" s="55"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
       <c r="R13" s="51"/>
       <c r="S13" s="57"/>
       <c r="U13" s="57"/>
@@ -4700,8 +4712,8 @@
       <c r="W13" s="52"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="53"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
       <c r="AB13" s="51"/>
       <c r="AC13" s="57"/>
       <c r="AE13" s="57"/>
@@ -4709,8 +4721,8 @@
       <c r="AG13" s="52"/>
       <c r="AH13" s="55"/>
       <c r="AI13" s="53"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
       <c r="AL13" s="51"/>
       <c r="AM13" s="51"/>
       <c r="AO13" s="57"/>
@@ -4723,14 +4735,14 @@
       <c r="B14" s="57"/>
       <c r="C14" s="51"/>
       <c r="D14" t="str">
-        <f>Сущности!L3</f>
+        <f>Сущности!M3</f>
         <v>10.20.0.1</v>
       </c>
-      <c r="E14" s="89" t="str">
+      <c r="E14" s="88" t="str">
         <f>Сущности!B3&amp;" "&amp;Сущности!C3</f>
         <v>Astra Linux 1.7</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="57"/>
@@ -4739,14 +4751,14 @@
       <c r="M14" s="57"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51" t="str">
-        <f>Сущности!L4</f>
+        <f>Сущности!M4</f>
         <v>10.20.0.2</v>
       </c>
-      <c r="P14" s="89" t="str">
+      <c r="P14" s="88" t="str">
         <f>Сущности!B4&amp;" "&amp;Сущности!C4</f>
         <v>Astra Linux 1.7</v>
       </c>
-      <c r="Q14" s="89"/>
+      <c r="Q14" s="88"/>
       <c r="R14" s="51"/>
       <c r="S14" s="57"/>
       <c r="U14" s="57"/>
@@ -4754,14 +4766,14 @@
       <c r="W14" s="57"/>
       <c r="X14" s="51"/>
       <c r="Y14" s="51" t="str">
-        <f>Сущности!L5</f>
+        <f>Сущности!M5</f>
         <v>10.20.0.3</v>
       </c>
-      <c r="Z14" s="89" t="str">
+      <c r="Z14" s="88" t="str">
         <f>Сущности!B5&amp;" "&amp;Сущности!C5</f>
         <v>Astra Linux 1.7</v>
       </c>
-      <c r="AA14" s="89"/>
+      <c r="AA14" s="88"/>
       <c r="AB14" s="51"/>
       <c r="AC14" s="57"/>
       <c r="AE14" s="57"/>
@@ -4769,14 +4781,14 @@
       <c r="AG14" s="57"/>
       <c r="AH14" s="51"/>
       <c r="AI14" s="51" t="str">
-        <f>Сущности!L6</f>
+        <f>Сущности!M6</f>
         <v>10.20.0.4</v>
       </c>
-      <c r="AJ14" s="89" t="str">
+      <c r="AJ14" s="88" t="str">
         <f>Сущности!B6&amp;" "&amp;Сущности!C6</f>
         <v>Astra Linux 1.7</v>
       </c>
-      <c r="AK14" s="89"/>
+      <c r="AK14" s="88"/>
       <c r="AL14" s="51"/>
       <c r="AM14" s="51"/>
       <c r="AO14" s="57"/>
@@ -4789,8 +4801,8 @@
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="57"/>
@@ -4799,8 +4811,8 @@
       <c r="M15" s="57"/>
       <c r="N15" s="56"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
       <c r="R15" s="51"/>
       <c r="S15" s="57"/>
       <c r="U15" s="57"/>
@@ -4808,8 +4820,8 @@
       <c r="W15" s="57"/>
       <c r="X15" s="56"/>
       <c r="Y15" s="53"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
       <c r="AB15" s="51"/>
       <c r="AC15" s="57"/>
       <c r="AE15" s="57"/>
@@ -4817,8 +4829,8 @@
       <c r="AG15" s="57"/>
       <c r="AH15" s="56"/>
       <c r="AI15" s="53"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88"/>
       <c r="AL15" s="51"/>
       <c r="AM15" s="51"/>
       <c r="AO15" s="57"/>
@@ -4830,12 +4842,12 @@
       <c r="A16" s="51"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="65" t="str">
-        <f>Сущности!J3</f>
+        <f>Сущности!K3</f>
         <v>10.72.1.2</v>
       </c>
       <c r="H16" s="51"/>
@@ -4845,10 +4857,10 @@
       <c r="M16" s="57"/>
       <c r="N16" s="56"/>
       <c r="O16" s="51"/>
-      <c r="P16" s="89" t="s">
+      <c r="P16" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="Q16" s="89"/>
+      <c r="Q16" s="88"/>
       <c r="R16" s="51"/>
       <c r="S16" s="57"/>
       <c r="U16" s="57"/>
@@ -4856,10 +4868,10 @@
       <c r="W16" s="57"/>
       <c r="X16" s="56"/>
       <c r="Y16" s="51"/>
-      <c r="Z16" s="89" t="s">
+      <c r="Z16" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="AA16" s="89"/>
+      <c r="AA16" s="88"/>
       <c r="AB16" s="51"/>
       <c r="AC16" s="57"/>
       <c r="AE16" s="57"/>
@@ -4867,10 +4879,10 @@
       <c r="AG16" s="57"/>
       <c r="AH16" s="56"/>
       <c r="AI16" s="51"/>
-      <c r="AJ16" s="89" t="s">
+      <c r="AJ16" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="AK16" s="89"/>
+      <c r="AK16" s="88"/>
       <c r="AL16" s="51"/>
       <c r="AM16" s="51"/>
       <c r="AO16" s="57"/>
@@ -4882,8 +4894,8 @@
       <c r="A17" s="51"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="54"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
@@ -4892,8 +4904,8 @@
       <c r="M17" s="57"/>
       <c r="N17" s="56"/>
       <c r="O17" s="51"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
       <c r="R17" s="51"/>
       <c r="S17" s="57"/>
       <c r="U17" s="57"/>
@@ -4901,8 +4913,8 @@
       <c r="W17" s="57"/>
       <c r="X17" s="56"/>
       <c r="Y17" s="51"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
       <c r="AB17" s="51"/>
       <c r="AC17" s="57"/>
       <c r="AE17" s="57"/>
@@ -4910,15 +4922,15 @@
       <c r="AG17" s="57"/>
       <c r="AH17" s="56"/>
       <c r="AI17" s="51"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
       <c r="AL17" s="51"/>
       <c r="AM17" s="51"/>
       <c r="AO17" s="57"/>
       <c r="AP17" s="51"/>
       <c r="AQ17" s="65"/>
       <c r="AR17" s="51"/>
-      <c r="AS17" s="88" t="s">
+      <c r="AS17" s="92" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4934,7 +4946,7 @@
       <c r="O18" s="59"/>
       <c r="P18" s="50"/>
       <c r="Q18" t="str">
-        <f>Сущности!J4</f>
+        <f>Сущности!K4</f>
         <v>10.72.1.3</v>
       </c>
       <c r="S18" s="59"/>
@@ -4945,7 +4957,7 @@
       <c r="Y18" s="59"/>
       <c r="Z18" s="50"/>
       <c r="AA18" t="str">
-        <f>Сущности!J5</f>
+        <f>Сущности!K5</f>
         <v>10.72.1.4</v>
       </c>
       <c r="AC18" s="59"/>
@@ -4956,14 +4968,14 @@
       <c r="AI18" s="59"/>
       <c r="AJ18" s="50"/>
       <c r="AK18" t="str">
-        <f>Сущности!J6</f>
+        <f>Сущности!K6</f>
         <v>10.72.1.5</v>
       </c>
       <c r="AN18" s="51"/>
       <c r="AO18" s="59"/>
       <c r="AQ18" s="48"/>
       <c r="AR18" s="51"/>
-      <c r="AS18" s="88"/>
+      <c r="AS18" s="92"/>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="51"/>
@@ -5010,7 +5022,7 @@
         <v>420 vlan</v>
       </c>
       <c r="AR19" s="61"/>
-      <c r="AS19" s="87" t="str">
+      <c r="AS19" s="93" t="str">
         <f>'Общая информация по сетям'!B5</f>
         <v>сеть ipmi</v>
       </c>
@@ -5035,7 +5047,7 @@
       <c r="AM20" s="59"/>
       <c r="AO20" s="64"/>
       <c r="AQ20" s="48"/>
-      <c r="AS20" s="87"/>
+      <c r="AS20" s="93"/>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="51"/>
@@ -5080,7 +5092,7 @@
         <v>320 vlan</v>
       </c>
       <c r="AR21" s="61"/>
-      <c r="AS21" s="87" t="str">
+      <c r="AS21" s="93" t="str">
         <f>'Общая информация по сетям'!B6</f>
         <v>vdi-public</v>
       </c>
@@ -5102,7 +5114,7 @@
       <c r="AI22" s="50"/>
       <c r="AM22" s="50"/>
       <c r="AQ22" s="48"/>
-      <c r="AS22" s="87"/>
+      <c r="AS22" s="93"/>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="51"/>
@@ -5148,7 +5160,7 @@
         <v>720 vlan</v>
       </c>
       <c r="AR23" s="61"/>
-      <c r="AS23" s="87" t="str">
+      <c r="AS23" s="93" t="str">
         <f>'Общая информация по сетям'!B2</f>
         <v>management network</v>
       </c>
@@ -5165,7 +5177,7 @@
       <c r="AI24" s="64"/>
       <c r="AM24" s="50"/>
       <c r="AQ24" s="48"/>
-      <c r="AS24" s="87"/>
+      <c r="AS24" s="93"/>
     </row>
     <row r="25" spans="1:45">
       <c r="A25" s="51"/>
@@ -5214,7 +5226,7 @@
         <v>520 vlan</v>
       </c>
       <c r="AR25" s="61"/>
-      <c r="AS25" s="87" t="str">
+      <c r="AS25" s="93" t="str">
         <f>'Общая информация по сетям'!B4</f>
         <v>ocfs2-heartbeat-vlan</v>
       </c>
@@ -5226,7 +5238,7 @@
       <c r="AG26" s="64"/>
       <c r="AM26" s="50"/>
       <c r="AQ26" s="48"/>
-      <c r="AS26" s="87"/>
+      <c r="AS26" s="93"/>
     </row>
     <row r="27" spans="1:45">
       <c r="B27" s="60"/>
@@ -5275,7 +5287,7 @@
         <v>620 vlan</v>
       </c>
       <c r="AR27" s="61"/>
-      <c r="AS27" s="87" t="str">
+      <c r="AS27" s="93" t="str">
         <f>'Общая информация по сетям'!B3</f>
         <v>storage network</v>
       </c>
@@ -5284,46 +5296,46 @@
       <c r="AI28" s="59"/>
       <c r="AM28" s="58"/>
       <c r="AQ28" s="48"/>
-      <c r="AS28" s="87"/>
+      <c r="AS28" s="93"/>
     </row>
     <row r="29" spans="1:45" ht="37.950000000000003" customHeight="1">
       <c r="AI29" s="57"/>
-      <c r="AJ29" s="88" t="s">
+      <c r="AJ29" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="AK29" s="87"/>
+      <c r="AK29" s="93"/>
       <c r="AM29" s="57"/>
       <c r="AQ29" s="48"/>
     </row>
     <row r="30" spans="1:45">
       <c r="AI30" s="57"/>
-      <c r="AJ30" s="88" t="s">
+      <c r="AJ30" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="AK30" s="87"/>
+      <c r="AK30" s="93"/>
       <c r="AL30" s="70"/>
       <c r="AM30" s="57"/>
       <c r="AQ30" s="48"/>
     </row>
     <row r="31" spans="1:45">
       <c r="AI31" s="57"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
+      <c r="AJ31" s="93"/>
+      <c r="AK31" s="93"/>
       <c r="AM31" s="51"/>
       <c r="AQ31" s="48"/>
     </row>
     <row r="32" spans="1:45">
       <c r="AI32" s="60"/>
-      <c r="AJ32" s="88" t="s">
+      <c r="AJ32" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="AK32" s="87"/>
+      <c r="AK32" s="93"/>
       <c r="AM32" s="51"/>
       <c r="AQ32" s="48"/>
     </row>
     <row r="33" spans="3:37">
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="93"/>
     </row>
     <row r="36" spans="3:37">
       <c r="AC36" s="68"/>
@@ -5355,37 +5367,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="Z4:AA5"/>
-    <mergeCell ref="Z6:AA7"/>
-    <mergeCell ref="Z8:AA9"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="Z14:AA15"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AJ30:AK31"/>
-    <mergeCell ref="AJ32:AK33"/>
-    <mergeCell ref="AJ4:AK5"/>
-    <mergeCell ref="AJ6:AK7"/>
-    <mergeCell ref="AJ8:AK9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="W12:Y12"/>
@@ -5402,6 +5383,37 @@
     <mergeCell ref="Z16:AA17"/>
     <mergeCell ref="P12:Q13"/>
     <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AJ30:AK31"/>
+    <mergeCell ref="AJ32:AK33"/>
+    <mergeCell ref="AJ4:AK5"/>
+    <mergeCell ref="AJ6:AK7"/>
+    <mergeCell ref="AJ8:AK9"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5410,10 +5422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
@@ -5424,33 +5436,34 @@
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="7" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.45" customHeight="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:16" ht="12.45" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.4">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4">
       <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
@@ -5472,28 +5485,31 @@
       <c r="G2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="K2" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="L2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="M2" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="N2" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="74"/>
       <c r="O2" s="74"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>197</v>
       </c>
@@ -5515,24 +5531,27 @@
       <c r="G3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="K3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>198</v>
       </c>
@@ -5554,24 +5573,27 @@
       <c r="G4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="K4" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="18" t="s">
         <v>199</v>
       </c>
@@ -5593,24 +5615,27 @@
       <c r="G5" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="K5" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="18" t="s">
         <v>200</v>
       </c>
@@ -5632,24 +5657,27 @@
       <c r="G6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="K6" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="18" t="s">
         <v>201</v>
       </c>
@@ -5671,24 +5699,27 @@
       <c r="G7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="K7" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="18"/>
       <c r="B8" s="28"/>
       <c r="C8" s="27"/>
@@ -5697,65 +5728,70 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="96" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="97"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="96" t="s">
+      <c r="J9" s="98"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:15" ht="79.2" customHeight="1">
-      <c r="A11" s="96" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="1:16" ht="79.2" customHeight="1">
+      <c r="A11" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.2" customHeight="1">
-      <c r="A12" s="98" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" ht="13.2" customHeight="1">
+      <c r="A12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="100"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -5775,12 +5811,15 @@
         <v>229</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="11" t="s">
         <v>89</v>
       </c>
@@ -5800,12 +5839,15 @@
         <v>230</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
@@ -5825,12 +5867,15 @@
         <v>231</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -5850,12 +5895,15 @@
         <v>232</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
         <v>91</v>
       </c>
@@ -5875,12 +5923,15 @@
         <v>233</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="11" t="s">
         <v>92</v>
       </c>
@@ -5900,12 +5951,15 @@
         <v>234</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -5925,12 +5979,15 @@
         <v>235</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
         <v>191</v>
       </c>
@@ -5950,137 +6007,148 @@
         <v>236</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:9" ht="13.2" customHeight="1"/>
-    <row r="23" spans="1:9" ht="13.2" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:10" ht="13.2" customHeight="1"/>
+    <row r="23" spans="1:10" ht="13.2" customHeight="1">
+      <c r="A23" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="100"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="101"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6160,19 +6228,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6572,19 +6640,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="F1" s="103" t="s">
+      <c r="B1" s="104"/>
+      <c r="F1" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="13.8">
       <c r="A2" s="9" t="s">
@@ -6600,25 +6668,25 @@
       <c r="H2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="104"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="J3" s="104" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="J3" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="104"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" ht="13.8" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -6634,10 +6702,10 @@
       <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="104"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
@@ -6649,10 +6717,10 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
@@ -6684,11 +6752,11 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:11">
       <c r="F10" s="35" t="s">
@@ -6698,12 +6766,12 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
       <c r="F11" s="35" t="s">
         <v>89</v>
       </c>
@@ -6711,12 +6779,12 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
       <c r="F12" s="35" t="s">
         <v>90</v>
       </c>
@@ -6781,10 +6849,10 @@
       <c r="A18" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="103"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
@@ -6823,10 +6891,10 @@
       <c r="B26" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="102"/>
+      <c r="B28" s="103"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
@@ -6896,16 +6964,16 @@
       <c r="D1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="I1" s="102" t="s">
+      <c r="G1" s="113"/>
+      <c r="I1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="28" t="s">
@@ -6925,11 +6993,11 @@
       <c r="I2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="28"/>
@@ -6945,9 +7013,9 @@
       <c r="I3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2"/>
@@ -6963,9 +7031,9 @@
       <c r="I4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="36"/>
@@ -6981,9 +7049,9 @@
       <c r="I5" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="17"/>
@@ -7053,10 +7121,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="115"/>
     </row>
     <row r="3" spans="1:2" ht="26.4">
       <c r="A3" s="3" t="s">
@@ -7163,16 +7231,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="116"/>
     </row>
     <row r="17" spans="1:2" ht="136.19999999999999" customHeight="1">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="3">
